--- a/cases/apidata.xlsx
+++ b/cases/apidata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,23 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{‘Content-Type’:‘application/json’}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/robot/talk/saveRobotTalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.robot.aiyunshen.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Accept':'application/json,text/plain,*/*'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://52.81.8.239:8090/ask?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'q':'带我去梦境','mall_code':'1000000001'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +141,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,14 +430,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -478,16 +478,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/cases/apidata.xlsx
+++ b/cases/apidata.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,42 @@
   </si>
   <si>
     <t>{'q':'带我去梦境','mall_code':'1000000001'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音导航去梦境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'userName':'admin','password':'admin123456'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.loads(r.text).get('status')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.loads(r.text).get('flag')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,6 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,71 +470,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="4">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
+        <v>403007</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>403007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cases/apidata.xlsx
+++ b/cases/apidata.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语音导航去梦境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>json.loads(r.text).get('flag')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登陆失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,7 +492,7 @@
     <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -508,13 +512,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -537,12 +544,15 @@
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -557,18 +567,21 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4">
         <v>403007</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -583,15 +596,18 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -600,17 +616,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -625,16 +644,46 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4">
         <v>403007</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cases/apidata.xlsx
+++ b/cases/apidata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>管理员登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'q':'带我去星巴克','mall_code':'1000000001'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="4">
-        <v>403007</v>
+        <v>403006</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -590,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>

--- a/cases/apidata.xlsx
+++ b/cases/apidata.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
